--- a/Resources/Current_menu.xlsx
+++ b/Resources/Current_menu.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2017-11-22" sheetId="1" r:id="rId1"/>
+    <sheet name="2017-12-18" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -31,40 +31,52 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Maria Eugenia Quiroz Felix</t>
+  </si>
+  <si>
+    <t>Sonora Offshore</t>
+  </si>
+  <si>
+    <t>Guiso3 (Empanadas de res)</t>
+  </si>
+  <si>
+    <t>2017-12-18 00:00:00</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Victor Abad Rojas Cruz</t>
   </si>
   <si>
     <t>Pinnacle Aerospace</t>
   </si>
   <si>
-    <t>Guiso1 (Pollo con chorizo a la mexicana)</t>
-  </si>
-  <si>
-    <t>2017-11-22 00:00:00</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>2017-12-18 14:00:12</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Carlos Raul Flores Carballo</t>
   </si>
   <si>
-    <t>Guiso2 (Chamorro en chile colorado)</t>
+    <t>Guiso1 (cocido de res)</t>
+  </si>
+  <si>
+    <t>2017-12-18 14:00:38</t>
   </si>
   <si>
     <t>Jose Ramon Dominguez Barba</t>
   </si>
   <si>
-    <t>Guiso3 (Muslo horneado BBQ)</t>
+    <t>Guiso2 (dedos de pescado empanizados)</t>
   </si>
   <si>
     <t>Josue Alejandro Olivas Mendez</t>
   </si>
   <si>
     <t>Cinthya Jeanneth Ortega Beltran</t>
-  </si>
-  <si>
-    <t>Hetson Gael Bevington Acosta</t>
   </si>
 </sst>
 </file>
@@ -506,44 +518,44 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -554,13 +566,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -571,13 +583,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
